--- a/medicine/Pharmacie/Classe_ATC_H05/Classe_ATC_H05.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_H05/Classe_ATC_H05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du code ATC :
 H Hormones systémiques, hormones sexuelles exclues
-H05 Médicaments de l'équilibre calcique[1].
+H05 Médicaments de l'équilibre calcique.
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>H05AA Hormones parathyroïdiennes
-H05AA01 Extrait de glande parathyroïde
+          <t>H05AA Hormones parathyroïdiennes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>H05AA01 Extrait de glande parathyroïde
 H05AA02 Tériparatide
 H05AA03 Hormone parathyroïdienne</t>
         </is>
@@ -548,13 +565,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>H05BA Calcitonines
-H05BA01 Calcitonine synthétique de saumon
+          <t>H05BA Calcitonines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>H05BA01 Calcitonine synthétique de saumon
 H05BA02 Calcitonine naturelle de porc
 H05BA03 Calcitonine synthétique humaine
-H05BA04 Elcatonine (en)
-H05BX Autres agents antiparathyroïdiens
-H05BX01 Cinacalcet
+H05BA04 Elcatonine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>H05B Agents antiparathyroïdiens</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H05BX Autres agents antiparathyroïdiens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>H05BX01 Cinacalcet
 H05BX02 Paricalcitol
 H05BX03 Doxercalciférol (en)
 H05BX04 Etelcalcetide (en)</t>
